--- a/wow/牧师技能表.xlsx
+++ b/wow/牧师技能表.xlsx
@@ -51,6 +51,27 @@
     <t>戒律牧师</t>
   </si>
   <si>
+    <t>真言术·障</t>
+  </si>
+  <si>
+    <t>保护指定地点盟友减伤25%，消除受攻击施法惩罚</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>瞬发</t>
+  </si>
+  <si>
+    <t>绝望祷言</t>
+  </si>
+  <si>
+    <t>最大生命值提高25%持续10s，恢复相同的生命值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 min </t>
+  </si>
+  <si>
     <t>真言术·耀</t>
   </si>
   <si>
@@ -63,25 +84,25 @@
     <t>1.7s</t>
   </si>
   <si>
-    <t>绝望祷言</t>
-  </si>
-  <si>
-    <t>最大生命值提高25%持续10s，恢复相同的生命值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 min </t>
-  </si>
-  <si>
-    <t>瞬发</t>
-  </si>
-  <si>
-    <t>真言术·障</t>
-  </si>
-  <si>
-    <t>保护指定地点盟友减伤25%，消除受攻击施法惩罚</t>
-  </si>
-  <si>
-    <t>3 min</t>
+    <t>纯净术</t>
+  </si>
+  <si>
+    <t>驱散有害效果并消除疾病</t>
+  </si>
+  <si>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>苦修</t>
+  </si>
+  <si>
+    <t>造成伤害或者为盟友恢复生命</t>
+  </si>
+  <si>
+    <t>9s</t>
+  </si>
+  <si>
+    <t>引导</t>
   </si>
   <si>
     <t>群体复活</t>
@@ -96,27 +117,6 @@
     <t>8.4s</t>
   </si>
   <si>
-    <t>苦修</t>
-  </si>
-  <si>
-    <t>造成伤害或者为盟友恢复生命</t>
-  </si>
-  <si>
-    <t>9s</t>
-  </si>
-  <si>
-    <t>引导</t>
-  </si>
-  <si>
-    <t>纯净术</t>
-  </si>
-  <si>
-    <t>驱散有害效果并消除疾病</t>
-  </si>
-  <si>
-    <t>8s</t>
-  </si>
-  <si>
     <t>全神贯注</t>
   </si>
   <si>
@@ -126,6 +126,18 @@
     <t>1.5min</t>
   </si>
   <si>
+    <t>神圣新星</t>
+  </si>
+  <si>
+    <t>对12码范围敌人造成伤害，并治疗盟友</t>
+  </si>
+  <si>
+    <t>痛苦压制</t>
+  </si>
+  <si>
+    <t>友方目标减伤40%，持续8s</t>
+  </si>
+  <si>
     <t>惩击</t>
   </si>
   <si>
@@ -135,18 +147,6 @@
     <t>1.3s</t>
   </si>
   <si>
-    <t>痛苦压制</t>
-  </si>
-  <si>
-    <t>友方目标减伤40%，持续8s</t>
-  </si>
-  <si>
-    <t>神圣新星</t>
-  </si>
-  <si>
-    <t>对12码范围敌人造成伤害，并治疗盟友</t>
-  </si>
-  <si>
     <t>神圣</t>
   </si>
   <si>
@@ -183,28 +183,43 @@
     <t>1 min</t>
   </si>
   <si>
+    <t>真言术·盾</t>
+  </si>
+  <si>
+    <t>持续15秒的盾，吸收伤害</t>
+  </si>
+  <si>
+    <t>5.1s</t>
+  </si>
+  <si>
+    <t>希望象征</t>
+  </si>
+  <si>
+    <t>40码内其余治疗者在6s内每秒恢复损失法力的2%</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
     <t>暗影愈合</t>
   </si>
   <si>
     <t>恢复队友血量，但会在之后持续扣血，扣至上限或者脱离战斗解除</t>
   </si>
   <si>
-    <t>希望象征</t>
-  </si>
-  <si>
-    <t>40码内其余治疗者在6s内每秒恢复损失法力的2%</t>
-  </si>
-  <si>
-    <t>5 min</t>
-  </si>
-  <si>
-    <t>真言术·盾</t>
-  </si>
-  <si>
-    <t>持续15秒的盾，吸收伤害</t>
-  </si>
-  <si>
-    <t>5.1s</t>
+    <t>神圣赞美诗</t>
+  </si>
+  <si>
+    <t>6.8s内为40码内队友恢复，治疗效果+10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 min </t>
+  </si>
+  <si>
+    <t>暗言术·痛</t>
+  </si>
+  <si>
+    <t>立即造成伤害，并持续16秒烫血</t>
   </si>
   <si>
     <t>快速治疗</t>
@@ -213,21 +228,6 @@
     <t>快速恢复角色生命</t>
   </si>
   <si>
-    <t>暗言术·痛</t>
-  </si>
-  <si>
-    <t>立即造成伤害，并持续16秒烫血</t>
-  </si>
-  <si>
-    <t>神圣赞美诗</t>
-  </si>
-  <si>
-    <t>6.8s内为40码内队友恢复，治疗效果+10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 min </t>
-  </si>
-  <si>
     <t>治疗术</t>
   </si>
   <si>
@@ -267,24 +267,24 @@
     <t>拉拽一名队员到面前</t>
   </si>
   <si>
+    <t>守护之魂</t>
+  </si>
+  <si>
+    <t>目标治疗效果提高60%，在一定伤害内防止死亡，10s</t>
+  </si>
+  <si>
+    <t>心灵视界</t>
+  </si>
+  <si>
+    <t>通过其他角色观察世界</t>
+  </si>
+  <si>
     <t>愈合祷言</t>
   </si>
   <si>
     <t>角色受攻击恢复生命，并最多在20码内转移5次</t>
   </si>
   <si>
-    <t>心灵视界</t>
-  </si>
-  <si>
-    <t>通过其他角色观察世界</t>
-  </si>
-  <si>
-    <t>守护之魂</t>
-  </si>
-  <si>
-    <t>目标治疗效果提高60%，在一定伤害内防止死亡，10s</t>
-  </si>
-  <si>
     <t>渐隐术</t>
   </si>
   <si>
@@ -312,37 +312,55 @@
     <t>暗影</t>
   </si>
   <si>
+    <t>吸血鬼的拥抱</t>
+  </si>
+  <si>
+    <t>15秒内造成的暗影伤害85%转化为附近盟友的治疗</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
     <t>漂浮术</t>
   </si>
   <si>
     <t>让成员漂浮十分钟</t>
   </si>
   <si>
+    <t>精神灼烧</t>
+  </si>
+  <si>
+    <t>2.5s内造成伤害</t>
+  </si>
+  <si>
+    <t>真言术·韧</t>
+  </si>
+  <si>
+    <t>耐力提高10%，持续1小时</t>
+  </si>
+  <si>
+    <t>精神鞭笞</t>
+  </si>
+  <si>
+    <t>2.5s内造成伤害，移动降低50%</t>
+  </si>
+  <si>
+    <t>心灵尖啸</t>
+  </si>
+  <si>
+    <t>8码内5个敌人逃跑8秒，有伤害就解除</t>
+  </si>
+  <si>
     <t>吸血鬼之触</t>
   </si>
   <si>
     <t>21秒内造成伤害，恢复伤害50%的生命，驱散就恐惧，6狂</t>
   </si>
   <si>
-    <t>真言术·韧</t>
-  </si>
-  <si>
-    <t>耐力提高10%，持续1小时</t>
-  </si>
-  <si>
-    <t>吸血鬼的拥抱</t>
-  </si>
-  <si>
-    <t>15秒内造成的暗影伤害85%转化为附近盟友的治疗</t>
-  </si>
-  <si>
-    <t>2 min</t>
-  </si>
-  <si>
-    <t>心灵尖啸</t>
-  </si>
-  <si>
-    <t>8码内5个敌人逃跑8秒，有伤害就解除</t>
+    <t>驱散魔法</t>
+  </si>
+  <si>
+    <t>驱散敌方法术效果</t>
   </si>
   <si>
     <t>心灵震爆</t>
@@ -360,22 +378,13 @@
     <t>束缚亡灵单位50s</t>
   </si>
   <si>
-    <t>精神灼烧</t>
-  </si>
-  <si>
-    <t>2.5s内造成伤害</t>
-  </si>
-  <si>
-    <t>驱散魔法</t>
-  </si>
-  <si>
-    <t>驱散敌方法术效果</t>
-  </si>
-  <si>
-    <t>精神鞭笞</t>
-  </si>
-  <si>
-    <t>2.5s内造成伤害，移动降低50%</t>
+    <t>虚空暴发</t>
+  </si>
+  <si>
+    <t>10s对敌人造成伤害</t>
+  </si>
+  <si>
+    <t>90狂乱</t>
   </si>
   <si>
     <t>精神控制</t>
@@ -385,15 +394,6 @@
   </si>
   <si>
     <t>1.5s</t>
-  </si>
-  <si>
-    <t>虚空暴发</t>
-  </si>
-  <si>
-    <t>10s对敌人造成伤害</t>
-  </si>
-  <si>
-    <t>90狂乱</t>
   </si>
   <si>
     <t>暗影形态</t>
@@ -425,12 +425,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +439,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -448,22 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,14 +471,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,77 +485,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,8 +507,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,13 +622,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,37 +730,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,103 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,6 +813,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,11 +866,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,56 +907,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -925,148 +918,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1540,26 +1533,26 @@
         <v>17</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>22</v>
@@ -1576,43 +1569,43 @@
         <v>24</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:20">
@@ -1631,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>36</v>
@@ -1645,46 +1638,46 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1706,7 +1699,7 @@
         <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
         <v>47</v>
@@ -1728,7 +1721,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>50</v>
@@ -1742,10 +1735,10 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:20">
@@ -1764,60 +1757,60 @@
         <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:20">
@@ -1833,46 +1826,46 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1888,7 +1881,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>72</v>
@@ -1907,10 +1900,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -1929,7 +1922,7 @@
         <v>77</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L23" t="s">
         <v>78</v>
@@ -1948,10 +1941,10 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>81</v>
@@ -1968,7 +1961,7 @@
         <v>17</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -1984,10 +1977,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>85</v>
@@ -2001,10 +1994,10 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:20">
@@ -2020,10 +2013,10 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>89</v>
@@ -2040,7 +2033,7 @@
         <v>91</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="12:20">
@@ -2059,7 +2052,7 @@
         <v>94</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="12:20">
@@ -2075,94 +2068,111 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>97</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L29" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2172,210 +2182,191 @@
         <v>54</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>72</v>
+      <c r="B35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>18</v>
+      <c r="J37" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>18</v>
+      <c r="J38" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/wow/牧师技能表.xlsx
+++ b/wow/牧师技能表.xlsx
@@ -216,202 +216,202 @@
     <t xml:space="preserve">3 min </t>
   </si>
   <si>
+    <t>快速治疗</t>
+  </si>
+  <si>
+    <t>快速恢复角色生命</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>恢复大量生命值</t>
+  </si>
+  <si>
+    <t>2.1s</t>
+  </si>
+  <si>
+    <t>治疗祷言</t>
+  </si>
+  <si>
+    <t>为附近4个队友恢复生命</t>
+  </si>
+  <si>
+    <t>神圣之火</t>
+  </si>
+  <si>
+    <t>造成伤害，并持续减伤7s</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>三天赋共用技能</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>立即恢复一定生命，并在15s内持续恢复</t>
+  </si>
+  <si>
+    <t>信仰飞跃</t>
+  </si>
+  <si>
+    <t>拉拽一名队员到面前</t>
+  </si>
+  <si>
+    <t>守护之魂</t>
+  </si>
+  <si>
+    <t>目标治疗效果提高60%，在一定伤害内防止死亡，10s</t>
+  </si>
+  <si>
+    <t>心灵视界</t>
+  </si>
+  <si>
+    <t>通过其他角色观察世界</t>
+  </si>
+  <si>
+    <t>愈合祷言</t>
+  </si>
+  <si>
+    <t>角色受攻击恢复生命，并最多在20码内转移5次</t>
+  </si>
+  <si>
+    <t>渐隐术</t>
+  </si>
+  <si>
+    <t>移除威胁值，持续10s</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>群体驱散</t>
+  </si>
+  <si>
+    <t>移除15码以内5个友方的有害法术，5个敌人的增益</t>
+  </si>
+  <si>
+    <t>45s</t>
+  </si>
+  <si>
+    <t>复活术</t>
+  </si>
+  <si>
+    <t>复活一人</t>
+  </si>
+  <si>
+    <t>暗影</t>
+  </si>
+  <si>
+    <t>吸血鬼的拥抱</t>
+  </si>
+  <si>
+    <t>15秒内造成的暗影伤害85%转化为附近盟友的治疗</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>漂浮术</t>
+  </si>
+  <si>
+    <t>让成员漂浮十分钟</t>
+  </si>
+  <si>
+    <t>精神灼烧</t>
+  </si>
+  <si>
+    <t>2.5s内造成伤害</t>
+  </si>
+  <si>
+    <t>真言术·韧</t>
+  </si>
+  <si>
+    <t>耐力提高10%，持续1小时</t>
+  </si>
+  <si>
+    <t>精神鞭笞</t>
+  </si>
+  <si>
+    <t>2.5s内造成伤害，移动降低50%</t>
+  </si>
+  <si>
+    <t>心灵尖啸</t>
+  </si>
+  <si>
+    <t>8码内5个敌人逃跑8秒，有伤害就解除</t>
+  </si>
+  <si>
+    <t>吸血鬼之触</t>
+  </si>
+  <si>
+    <t>21秒内造成伤害，恢复伤害50%的生命，驱散就恐惧，6狂</t>
+  </si>
+  <si>
+    <t>驱散魔法</t>
+  </si>
+  <si>
+    <t>驱散敌方法术效果</t>
+  </si>
+  <si>
+    <t>心灵震爆</t>
+  </si>
+  <si>
+    <t>造成暗影伤害，+12狂乱</t>
+  </si>
+  <si>
+    <t>6.3s</t>
+  </si>
+  <si>
+    <t>束缚亡灵</t>
+  </si>
+  <si>
+    <t>束缚亡灵单位50s</t>
+  </si>
+  <si>
+    <t>虚空暴发</t>
+  </si>
+  <si>
+    <t>10s对敌人造成伤害</t>
+  </si>
+  <si>
+    <t>90狂乱</t>
+  </si>
+  <si>
+    <t>精神控制</t>
+  </si>
+  <si>
+    <t>控制目标30秒</t>
+  </si>
+  <si>
+    <t>1.5s</t>
+  </si>
+  <si>
+    <t>暗影形态</t>
+  </si>
+  <si>
+    <t>伤害提高10%,物理减伤10%</t>
+  </si>
+  <si>
+    <t>消散</t>
+  </si>
+  <si>
+    <t>减伤60%,6s,不消耗狂乱，消除并免疫移动限制</t>
+  </si>
+  <si>
+    <t>净化疾病</t>
+  </si>
+  <si>
+    <t>移除友方疾病效果</t>
+  </si>
+  <si>
     <t>暗言术·痛</t>
   </si>
   <si>
     <t>立即造成伤害，并持续16秒烫血</t>
-  </si>
-  <si>
-    <t>快速治疗</t>
-  </si>
-  <si>
-    <t>快速恢复角色生命</t>
-  </si>
-  <si>
-    <t>治疗术</t>
-  </si>
-  <si>
-    <t>恢复大量生命值</t>
-  </si>
-  <si>
-    <t>2.1s</t>
-  </si>
-  <si>
-    <t>治疗祷言</t>
-  </si>
-  <si>
-    <t>为附近4个队友恢复生命</t>
-  </si>
-  <si>
-    <t>神圣之火</t>
-  </si>
-  <si>
-    <t>造成伤害，并持续减伤7s</t>
-  </si>
-  <si>
-    <t>10s</t>
-  </si>
-  <si>
-    <t>三天赋共用技能</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
-    <t>立即恢复一定生命，并在15s内持续恢复</t>
-  </si>
-  <si>
-    <t>信仰飞跃</t>
-  </si>
-  <si>
-    <t>拉拽一名队员到面前</t>
-  </si>
-  <si>
-    <t>守护之魂</t>
-  </si>
-  <si>
-    <t>目标治疗效果提高60%，在一定伤害内防止死亡，10s</t>
-  </si>
-  <si>
-    <t>心灵视界</t>
-  </si>
-  <si>
-    <t>通过其他角色观察世界</t>
-  </si>
-  <si>
-    <t>愈合祷言</t>
-  </si>
-  <si>
-    <t>角色受攻击恢复生命，并最多在20码内转移5次</t>
-  </si>
-  <si>
-    <t>渐隐术</t>
-  </si>
-  <si>
-    <t>移除威胁值，持续10s</t>
-  </si>
-  <si>
-    <t>30s</t>
-  </si>
-  <si>
-    <t>群体驱散</t>
-  </si>
-  <si>
-    <t>移除15码以内5个友方的有害法术，5个敌人的增益</t>
-  </si>
-  <si>
-    <t>45s</t>
-  </si>
-  <si>
-    <t>复活术</t>
-  </si>
-  <si>
-    <t>复活一人</t>
-  </si>
-  <si>
-    <t>暗影</t>
-  </si>
-  <si>
-    <t>吸血鬼的拥抱</t>
-  </si>
-  <si>
-    <t>15秒内造成的暗影伤害85%转化为附近盟友的治疗</t>
-  </si>
-  <si>
-    <t>2 min</t>
-  </si>
-  <si>
-    <t>漂浮术</t>
-  </si>
-  <si>
-    <t>让成员漂浮十分钟</t>
-  </si>
-  <si>
-    <t>精神灼烧</t>
-  </si>
-  <si>
-    <t>2.5s内造成伤害</t>
-  </si>
-  <si>
-    <t>真言术·韧</t>
-  </si>
-  <si>
-    <t>耐力提高10%，持续1小时</t>
-  </si>
-  <si>
-    <t>精神鞭笞</t>
-  </si>
-  <si>
-    <t>2.5s内造成伤害，移动降低50%</t>
-  </si>
-  <si>
-    <t>心灵尖啸</t>
-  </si>
-  <si>
-    <t>8码内5个敌人逃跑8秒，有伤害就解除</t>
-  </si>
-  <si>
-    <t>吸血鬼之触</t>
-  </si>
-  <si>
-    <t>21秒内造成伤害，恢复伤害50%的生命，驱散就恐惧，6狂</t>
-  </si>
-  <si>
-    <t>驱散魔法</t>
-  </si>
-  <si>
-    <t>驱散敌方法术效果</t>
-  </si>
-  <si>
-    <t>心灵震爆</t>
-  </si>
-  <si>
-    <t>造成暗影伤害，+12狂乱</t>
-  </si>
-  <si>
-    <t>6.3s</t>
-  </si>
-  <si>
-    <t>束缚亡灵</t>
-  </si>
-  <si>
-    <t>束缚亡灵单位50s</t>
-  </si>
-  <si>
-    <t>虚空暴发</t>
-  </si>
-  <si>
-    <t>10s对敌人造成伤害</t>
-  </si>
-  <si>
-    <t>90狂乱</t>
-  </si>
-  <si>
-    <t>精神控制</t>
-  </si>
-  <si>
-    <t>控制目标30秒</t>
-  </si>
-  <si>
-    <t>1.5s</t>
-  </si>
-  <si>
-    <t>暗影形态</t>
-  </si>
-  <si>
-    <t>伤害提高10%,物理减伤10%</t>
-  </si>
-  <si>
-    <t>消散</t>
-  </si>
-  <si>
-    <t>减伤60%,6s,不消耗狂乱，消除并免疫移动限制</t>
-  </si>
-  <si>
-    <t>净化疾病</t>
-  </si>
-  <si>
-    <t>移除友方疾病效果</t>
   </si>
   <si>
     <t>沉默</t>
@@ -426,9 +426,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -440,15 +440,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,14 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -486,7 +477,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,16 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,13 +524,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -554,7 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +559,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -622,19 +622,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,61 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,97 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,6 +813,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,7 +874,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,21 +905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -889,30 +913,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -921,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,133 +933,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1813,7 +1813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1831,31 +1831,14 @@
       <c r="J19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1870,11 +1853,11 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1884,16 +1867,16 @@
         <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1908,33 +1891,33 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1947,11 +1930,11 @@
         <v>14</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1966,11 +1949,11 @@
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1983,11 +1966,11 @@
         <v>14</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2002,35 +1985,35 @@
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>14</v>
@@ -2038,18 +2021,18 @@
     </row>
     <row r="27" spans="12:20">
       <c r="L27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>42</v>
@@ -2057,11 +2040,11 @@
     </row>
     <row r="28" spans="12:20">
       <c r="L28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2076,31 +2059,31 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2115,11 +2098,11 @@
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2132,11 +2115,11 @@
         <v>28</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2151,11 +2134,11 @@
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2168,11 +2151,11 @@
         <v>28</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2187,11 +2170,11 @@
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2204,11 +2187,11 @@
         <v>42</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2223,28 +2206,28 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2259,28 +2242,28 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2290,16 +2273,16 @@
         <v>31</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2314,18 +2297,18 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>14</v>
@@ -2333,11 +2316,11 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2351,21 +2334,40 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J38" s="5" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>14</v>
       </c>
     </row>
